--- a/Medicine Inventory/ESPENHealthFacilities.xlsx
+++ b/Medicine Inventory/ESPENHealthFacilities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyesse\ShareFile\Dossiers personnels\ESPEN\Inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Medicine Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8805D4-870F-4857-8F6C-4A4A19A4ABCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B014955-89B4-49F7-ADD4-C7451F6B6007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="320">
   <si>
     <t>type</t>
   </si>
@@ -560,9 +560,6 @@
     <t>makélékélé</t>
   </si>
   <si>
-    <t>KBANGOU</t>
-  </si>
-  <si>
     <t>IGNIE-MAYAMA</t>
   </si>
   <si>
@@ -978,6 +975,24 @@
   </si>
   <si>
     <t>ZONE 9</t>
+  </si>
+  <si>
+    <t>KIBANGOU</t>
+  </si>
+  <si>
+    <t>DZOUMOUNA</t>
+  </si>
+  <si>
+    <t>LOUKANGA 2</t>
+  </si>
+  <si>
+    <t>SAMBA Alphonse</t>
+  </si>
+  <si>
+    <t>NTOULA</t>
+  </si>
+  <si>
+    <t>MABENGA</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1141,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,6 +1165,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1435,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
@@ -1713,17 +1741,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H474"/>
+  <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.609375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="32" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.109375" style="2" customWidth="1"/>
@@ -1735,7 +1763,7 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1761,7 +1789,7 @@
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1777,7 +1805,7 @@
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>168</v>
       </c>
       <c r="C3" t="s">
@@ -1795,7 +1823,7 @@
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C4" t="s">
@@ -1813,7 +1841,7 @@
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C5" t="s">
@@ -1831,7 +1859,7 @@
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C6" t="s">
@@ -1849,7 +1877,7 @@
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C7" t="s">
@@ -1867,14 +1895,14 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>176</v>
+      <c r="B8" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
@@ -1885,14 +1913,14 @@
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>175</v>
+      <c r="B9" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
@@ -1903,7 +1931,7 @@
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C10" t="s">
@@ -1921,7 +1949,7 @@
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
@@ -1939,7 +1967,7 @@
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C12" t="s">
@@ -1957,7 +1985,7 @@
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
@@ -1975,7 +2003,7 @@
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>173</v>
       </c>
       <c r="C14" t="s">
@@ -1993,7 +2021,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2005,14 +2033,14 @@
       <c r="E15" s="4"/>
       <c r="F15"/>
       <c r="G15" s="13" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2024,59 +2052,59 @@
       <c r="E16" s="4"/>
       <c r="F16"/>
       <c r="G16" s="13" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>177</v>
+      <c r="B17" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17"/>
-      <c r="G17" s="13" t="s">
-        <v>173</v>
+      <c r="G17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>178</v>
+      <c r="B18" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18"/>
       <c r="G18" s="13" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>179</v>
+      <c r="B19" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19"/>
@@ -2085,340 +2113,340 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>180</v>
+      <c r="B20" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20"/>
       <c r="G20" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
-        <v>181</v>
+      <c r="B21" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21"/>
       <c r="G21" s="13" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
-        <v>182</v>
+      <c r="B22" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22"/>
       <c r="G22" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23"/>
-      <c r="G23" s="13" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25"/>
       <c r="G25" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>184</v>
+      <c r="B26" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26"/>
       <c r="G26" s="13" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>184</v>
+      <c r="B27" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27"/>
       <c r="G27" s="13" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28"/>
-      <c r="H28" s="2" t="s">
-        <v>61</v>
+      <c r="G28" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>153</v>
+      <c r="B29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29"/>
       <c r="H29" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
+      <c r="B30" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30"/>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31"/>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
-        <v>186</v>
+      <c r="B32" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32"/>
       <c r="H32" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B33" t="s">
-        <v>187</v>
+      <c r="B33" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33"/>
       <c r="H33" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
-        <v>188</v>
+      <c r="B34" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34"/>
       <c r="H34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>165</v>
+      <c r="B35" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35"/>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>163</v>
+      <c r="B36" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36"/>
       <c r="H36" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>189</v>
+      <c r="B37" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37"/>
@@ -2430,527 +2458,527 @@
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>65</v>
+      <c r="B38" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38"/>
       <c r="H38" s="2" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
-        <v>159</v>
+      <c r="B39" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39"/>
       <c r="H39" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" t="s">
-        <v>190</v>
+      <c r="B40" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40"/>
       <c r="H40" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
-        <v>191</v>
+      <c r="B41" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41"/>
       <c r="H41" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
+      <c r="B42" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42"/>
       <c r="H42" s="2" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="s">
-        <v>192</v>
+      <c r="B43" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43"/>
       <c r="H43" s="2" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B44" t="s">
-        <v>193</v>
+      <c r="B44" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44"/>
       <c r="H44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B45" t="s">
-        <v>194</v>
+      <c r="B45" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45"/>
       <c r="H45" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B46" t="s">
-        <v>195</v>
+      <c r="B46" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46"/>
       <c r="H46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
-        <v>196</v>
+      <c r="B47" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47"/>
       <c r="H47" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
-        <v>197</v>
+      <c r="B48" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48"/>
       <c r="H48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
-        <v>198</v>
+      <c r="B49" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49"/>
       <c r="H49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>199</v>
+      <c r="B50" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50"/>
       <c r="H50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>200</v>
+      <c r="B51" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51"/>
       <c r="H51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>201</v>
+      <c r="B52" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52"/>
       <c r="H52" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>202</v>
+      <c r="B53" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53"/>
       <c r="H53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
-        <v>203</v>
+      <c r="B54" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54"/>
       <c r="H54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>204</v>
+      <c r="B55" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55"/>
       <c r="H55" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>205</v>
+      <c r="B56" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56"/>
       <c r="H56" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>206</v>
+      <c r="B57" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57"/>
       <c r="H57" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>207</v>
+      <c r="B58" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58"/>
       <c r="H58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B59" t="s">
-        <v>208</v>
+      <c r="B59" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59"/>
       <c r="H59" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B60" t="s">
-        <v>209</v>
+      <c r="B60" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60"/>
       <c r="H60" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B61" t="s">
-        <v>210</v>
+      <c r="B61" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61"/>
       <c r="H61" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
-        <v>67</v>
+      <c r="B62" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62"/>
       <c r="H62" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>211</v>
+      <c r="B63" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63"/>
       <c r="H63" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" t="s">
-        <v>212</v>
+      <c r="B64" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64"/>
       <c r="H64" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>68</v>
+      <c r="B65" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65"/>
@@ -2962,14 +2990,14 @@
       <c r="A66" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" t="s">
-        <v>213</v>
+      <c r="B66" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66"/>
@@ -2981,14 +3009,14 @@
       <c r="A67" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>69</v>
+      <c r="B67" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67"/>
@@ -3000,90 +3028,90 @@
       <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>167</v>
+      <c r="B68" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68"/>
       <c r="H68" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B69" t="s">
-        <v>214</v>
+      <c r="B69" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69"/>
       <c r="H69" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" t="s">
-        <v>70</v>
+      <c r="B70" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70"/>
       <c r="H70" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B71" t="s">
-        <v>71</v>
+      <c r="B71" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71"/>
       <c r="H71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B72" t="s">
-        <v>72</v>
+      <c r="B72" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72"/>
@@ -3095,52 +3123,52 @@
       <c r="A73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>154</v>
+      <c r="B73" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73"/>
       <c r="H73" s="2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
+      <c r="B74" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74"/>
       <c r="H74" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" t="s">
-        <v>216</v>
+      <c r="B75" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75"/>
@@ -3152,318 +3180,318 @@
       <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>150</v>
+      <c r="B76" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76"/>
       <c r="H76" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B77" t="s">
-        <v>162</v>
+      <c r="B77" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77"/>
       <c r="H77" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" t="s">
-        <v>73</v>
+      <c r="B78" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78"/>
       <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B79" t="s">
-        <v>217</v>
+      <c r="B79" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79"/>
       <c r="H79" s="2" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B80" t="s">
-        <v>218</v>
+      <c r="B80" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80"/>
       <c r="H80" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B81" t="s">
-        <v>219</v>
+      <c r="B81" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81"/>
       <c r="H81" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B82" t="s">
-        <v>220</v>
+      <c r="B82" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82"/>
       <c r="H82" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B83" t="s">
-        <v>221</v>
+      <c r="B83" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83"/>
       <c r="H83" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B84" t="s">
-        <v>222</v>
+      <c r="B84" s="18" t="s">
+        <v>223</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84"/>
       <c r="H84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B85" t="s">
-        <v>223</v>
+      <c r="B85" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85"/>
       <c r="H85" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B86" t="s">
-        <v>224</v>
+      <c r="B86" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86"/>
       <c r="H86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B87" t="s">
-        <v>225</v>
+      <c r="B87" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87"/>
       <c r="H87" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B88" t="s">
-        <v>226</v>
+      <c r="B88" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88"/>
       <c r="H88" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B89" t="s">
-        <v>227</v>
+      <c r="B89" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89"/>
       <c r="H89" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B90" t="s">
-        <v>228</v>
+      <c r="B90" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90"/>
       <c r="H90" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B91" t="s">
-        <v>229</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>229</v>
+      <c r="B91" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91"/>
       <c r="H91" s="2" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" t="s">
-        <v>74</v>
+      <c r="B92" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92"/>
@@ -3475,109 +3503,109 @@
       <c r="A93" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B93" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" t="s">
-        <v>230</v>
-      </c>
-      <c r="D93" t="s">
-        <v>230</v>
+      <c r="B93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93"/>
       <c r="H93" s="2" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B94" t="s">
-        <v>231</v>
+      <c r="B94" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94"/>
       <c r="H94" s="2" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B95" t="s">
-        <v>75</v>
+      <c r="B95" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95"/>
       <c r="H95" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B96" t="s">
-        <v>76</v>
+      <c r="B96" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96"/>
       <c r="H96" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B97" t="s">
-        <v>156</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>156</v>
+      <c r="B97" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>76</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97"/>
       <c r="H97" s="2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B98" t="s">
-        <v>232</v>
-      </c>
-      <c r="C98" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" t="s">
-        <v>232</v>
+      <c r="B98" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98"/>
@@ -3589,869 +3617,872 @@
       <c r="A99" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B99" t="s">
-        <v>77</v>
+      <c r="B99" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="F99" s="6"/>
+      <c r="F99"/>
       <c r="H99" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B100" t="s">
-        <v>233</v>
+      <c r="B100" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="6"/>
       <c r="H100" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B101" t="s">
-        <v>234</v>
+      <c r="B101" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="6"/>
       <c r="H101" s="2" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B102" t="s">
-        <v>78</v>
+      <c r="B102" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="6"/>
       <c r="H102" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B103" t="s">
-        <v>79</v>
+      <c r="B103" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="6"/>
       <c r="H103" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B104" t="s">
-        <v>235</v>
+      <c r="B104" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="6"/>
       <c r="H104" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B105" t="s">
-        <v>236</v>
+      <c r="B105" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="6"/>
       <c r="H105" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B106" t="s">
-        <v>237</v>
+      <c r="B106" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="6"/>
       <c r="H106" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B107" t="s">
-        <v>238</v>
+      <c r="B107" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="6"/>
       <c r="H107" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>80</v>
+      <c r="B108" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" t="s">
+        <v>237</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="6"/>
       <c r="H108" s="2" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" t="s">
-        <v>239</v>
+      <c r="B109" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="6"/>
       <c r="H109" s="2" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>240</v>
+      <c r="B110" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="6"/>
       <c r="H110" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>81</v>
+      <c r="B111" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s">
+        <v>239</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="6"/>
       <c r="H111" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C112" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" t="s">
-        <v>241</v>
+      <c r="B112" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="6"/>
       <c r="H112" s="2" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>82</v>
+      <c r="B113" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="6"/>
       <c r="H113" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>242</v>
+      <c r="B114" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" t="s">
+        <v>82</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="6"/>
       <c r="H114" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" t="s">
-        <v>243</v>
-      </c>
-      <c r="D115" t="s">
-        <v>243</v>
+      <c r="B115" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="6"/>
       <c r="H115" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>244</v>
+      <c r="B116" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="6"/>
       <c r="H116" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>245</v>
+      <c r="B117" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="6"/>
       <c r="H117" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>246</v>
+      <c r="B118" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="6"/>
       <c r="H118" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>83</v>
+      <c r="B119" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="D119" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="6"/>
       <c r="H119" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>84</v>
+      <c r="B120" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="6"/>
       <c r="H120" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>160</v>
+      <c r="B121" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" t="s">
+        <v>84</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="6"/>
       <c r="H121" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" t="s">
-        <v>85</v>
+      <c r="B122" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="6"/>
       <c r="H122" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>86</v>
+      <c r="B123" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="6"/>
       <c r="H123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>87</v>
+      <c r="B124" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="6"/>
       <c r="H124" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>88</v>
+      <c r="B125" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="6"/>
       <c r="H125" s="2" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>247</v>
+      <c r="B126" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" t="s">
+        <v>88</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="6"/>
       <c r="H126" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C127" t="s">
-        <v>89</v>
-      </c>
-      <c r="D127" t="s">
-        <v>89</v>
+      <c r="B127" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="6"/>
       <c r="H127" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>248</v>
+      <c r="B128" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="6"/>
       <c r="H128" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>249</v>
+      <c r="B129" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="6"/>
       <c r="H129" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>90</v>
+      <c r="B130" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="D130" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="6"/>
       <c r="H130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>250</v>
+      <c r="B131" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="D131" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="6"/>
       <c r="H131" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>251</v>
+      <c r="B132" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
+        <v>249</v>
+      </c>
+      <c r="D132" t="s">
+        <v>249</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="6"/>
       <c r="H132" s="2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>252</v>
+      <c r="B133" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="6"/>
       <c r="H133" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>91</v>
+      <c r="B134" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="6"/>
       <c r="H134" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>92</v>
+      <c r="B135" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="6"/>
       <c r="H135" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>93</v>
+      <c r="B136" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" t="s">
+        <v>91</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="6"/>
+      <c r="G136"/>
       <c r="H136" s="2" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>94</v>
+      <c r="B137" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="6"/>
       <c r="H137" s="2" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>152</v>
+      <c r="B138" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>316</v>
+      </c>
+      <c r="D138" t="s">
+        <v>316</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="6"/>
+      <c r="G138"/>
       <c r="H138" s="2" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>95</v>
+      <c r="B139" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="6"/>
       <c r="H139" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>157</v>
+      <c r="B140" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="6"/>
       <c r="H140" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>164</v>
+      <c r="B141" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="6"/>
       <c r="H141" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D142" t="s">
-        <v>96</v>
+      <c r="B142" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="6"/>
       <c r="H142" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>253</v>
+      <c r="B143" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="D143" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="6"/>
+      <c r="G143"/>
       <c r="H143" s="2" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" t="s">
-        <v>254</v>
-      </c>
-      <c r="D144" t="s">
-        <v>254</v>
+      <c r="B144" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="6"/>
@@ -4463,111 +4494,112 @@
       <c r="A145" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>166</v>
+      <c r="B145" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="6"/>
       <c r="H145" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>149</v>
+      <c r="B146" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="s">
+        <v>96</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="6"/>
       <c r="H146" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>97</v>
+      <c r="B147" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" t="s">
+        <v>252</v>
       </c>
       <c r="E147" s="4"/>
+      <c r="F147" s="6"/>
       <c r="H147" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B148" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>161</v>
+      <c r="B148" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" t="s">
+        <v>253</v>
+      </c>
+      <c r="D148" t="s">
+        <v>253</v>
       </c>
       <c r="E148" s="4"/>
-      <c r="F148"/>
+      <c r="F148" s="4"/>
       <c r="H148" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B149" t="s">
-        <v>155</v>
+      <c r="B149" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E149" s="4"/>
-      <c r="F149"/>
+      <c r="F149" s="4"/>
       <c r="H149" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B150" t="s">
-        <v>255</v>
-      </c>
-      <c r="C150" t="s">
-        <v>255</v>
-      </c>
-      <c r="D150" t="s">
-        <v>255</v>
+      <c r="B150" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E150" s="4"/>
-      <c r="F150"/>
+      <c r="F150" s="4"/>
       <c r="H150" s="2" t="s">
         <v>183</v>
       </c>
@@ -4576,52 +4608,52 @@
       <c r="A151" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B151" t="s">
-        <v>256</v>
+      <c r="B151" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="E151" s="4"/>
-      <c r="F151"/>
+      <c r="F151" s="15"/>
       <c r="H151" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B152" t="s">
-        <v>257</v>
+      <c r="B152" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152"/>
       <c r="H152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B153" t="s">
-        <v>258</v>
-      </c>
-      <c r="C153" t="s">
-        <v>258</v>
-      </c>
-      <c r="D153" t="s">
-        <v>258</v>
+      <c r="B153" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153"/>
@@ -4633,172 +4665,168 @@
       <c r="A154" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B154" t="s">
-        <v>98</v>
+      <c r="B154" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="C154" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="D154" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154"/>
       <c r="H154" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B155" t="s">
-        <v>259</v>
-      </c>
-      <c r="C155" t="s">
-        <v>259</v>
-      </c>
-      <c r="D155" t="s">
-        <v>259</v>
+      <c r="B155" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155"/>
       <c r="H155" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B156" t="s">
-        <v>99</v>
+      <c r="B156" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156"/>
-      <c r="G156"/>
       <c r="H156" s="2" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B157" t="s">
-        <v>100</v>
+      <c r="B157" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="C157" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="D157" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157"/>
-      <c r="G157"/>
       <c r="H157" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B158" t="s">
-        <v>260</v>
+      <c r="B158" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="D158" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158"/>
-      <c r="G158"/>
       <c r="H158" s="2" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B159" t="s">
-        <v>261</v>
+      <c r="B159" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159"/>
-      <c r="G159"/>
       <c r="H159" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B160" t="s">
-        <v>262</v>
-      </c>
-      <c r="C160" t="s">
-        <v>262</v>
-      </c>
-      <c r="D160" t="s">
-        <v>262</v>
+      <c r="B160" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160"/>
       <c r="G160"/>
       <c r="H160" s="2" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B161" t="s">
-        <v>263</v>
+      <c r="B161" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C161" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D161" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161"/>
       <c r="G161"/>
       <c r="H161" s="2" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B162" t="s">
-        <v>101</v>
+      <c r="B162" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="D162" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162"/>
@@ -4811,254 +4839,254 @@
       <c r="A163" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B163" t="s">
-        <v>264</v>
+      <c r="B163" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D163" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163"/>
       <c r="G163"/>
       <c r="H163" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B164" t="s">
-        <v>265</v>
+      <c r="B164" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D164" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164"/>
       <c r="G164"/>
       <c r="H164" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B165" t="s">
-        <v>266</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>266</v>
+      <c r="B165" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D165" t="s">
+        <v>262</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165"/>
       <c r="G165"/>
       <c r="H165" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B166" t="s">
-        <v>102</v>
+      <c r="B166" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166"/>
       <c r="G166"/>
       <c r="H166" s="2" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B167" t="s">
-        <v>103</v>
+      <c r="B167" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="D167" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B168" t="s">
-        <v>104</v>
+      <c r="B168" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="D168" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168"/>
       <c r="G168"/>
       <c r="H168" s="2" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B169" t="s">
-        <v>105</v>
-      </c>
-      <c r="C169" t="s">
-        <v>105</v>
-      </c>
-      <c r="D169" t="s">
-        <v>105</v>
+      <c r="B169" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169"/>
       <c r="G169"/>
       <c r="H169" s="2" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B170" t="s">
-        <v>106</v>
+      <c r="B170" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="C170" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D170" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170"/>
       <c r="G170"/>
       <c r="H170" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B171" t="s">
-        <v>267</v>
+      <c r="B171" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C171" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="D171" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171"/>
       <c r="G171"/>
       <c r="H171" s="2" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B172" t="s">
-        <v>107</v>
+      <c r="B172" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C172" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172"/>
       <c r="G172"/>
       <c r="H172" s="2" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B173" t="s">
-        <v>268</v>
+      <c r="B173" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C173" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="D173" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173"/>
       <c r="G173"/>
       <c r="H173" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B174" t="s">
-        <v>269</v>
+      <c r="B174" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="C174" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="D174" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174"/>
       <c r="G174"/>
       <c r="H174" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B175" t="s">
-        <v>270</v>
+      <c r="B175" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="C175" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175"/>
@@ -5071,214 +5099,214 @@
       <c r="A176" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B176" t="s">
-        <v>271</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>271</v>
+      <c r="B176" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C176" t="s">
+        <v>107</v>
+      </c>
+      <c r="D176" t="s">
+        <v>107</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B177" t="s">
-        <v>272</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>272</v>
+      <c r="B177" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+      <c r="D177" t="s">
+        <v>267</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B178" t="s">
-        <v>273</v>
+      <c r="B178" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="C178" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D178" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178"/>
       <c r="G178"/>
       <c r="H178" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B179" t="s">
-        <v>274</v>
+      <c r="B179" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="C179" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D179" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179"/>
       <c r="G179"/>
       <c r="H179" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B180" t="s">
-        <v>108</v>
-      </c>
-      <c r="C180" t="s">
-        <v>108</v>
-      </c>
-      <c r="D180" t="s">
-        <v>108</v>
+      <c r="B180" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180"/>
       <c r="G180"/>
       <c r="H180" s="2" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B181" t="s">
-        <v>275</v>
+      <c r="B181" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B182" t="s">
-        <v>109</v>
+      <c r="B182" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="D182" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182" s="2" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B183" t="s">
-        <v>110</v>
-      </c>
-      <c r="C183" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>110</v>
+      <c r="B183" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" t="s">
+        <v>273</v>
+      </c>
+      <c r="D183" t="s">
+        <v>273</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183" s="2" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B184" t="s">
-        <v>111</v>
+      <c r="B184" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C184" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D184" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184"/>
       <c r="G184"/>
       <c r="H184" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B185" t="s">
-        <v>276</v>
-      </c>
-      <c r="C185" t="s">
-        <v>276</v>
-      </c>
-      <c r="D185" t="s">
-        <v>276</v>
+      <c r="B185" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B186" t="s">
-        <v>112</v>
+      <c r="B186" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="C186" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186"/>
@@ -5291,74 +5319,74 @@
       <c r="A187" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B187" t="s">
-        <v>113</v>
-      </c>
-      <c r="C187" t="s">
-        <v>113</v>
-      </c>
-      <c r="D187" t="s">
-        <v>113</v>
+      <c r="B187" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B188" s="12" t="s">
-        <v>277</v>
+      <c r="B188" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="C188" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188"/>
       <c r="G188"/>
       <c r="H188" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B189" s="12" t="s">
-        <v>278</v>
+      <c r="B189" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="C189" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D189" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B190" t="s">
-        <v>114</v>
+      <c r="B190" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="C190" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190"/>
@@ -5371,14 +5399,14 @@
       <c r="A191" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B191" t="s">
-        <v>115</v>
+      <c r="B191" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C191" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D191" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191"/>
@@ -5391,34 +5419,34 @@
       <c r="A192" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B192" t="s">
-        <v>116</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>116</v>
+      <c r="B192" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" t="s">
+        <v>276</v>
+      </c>
+      <c r="D192" t="s">
+        <v>276</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192"/>
       <c r="G192"/>
       <c r="H192" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B193" t="s">
-        <v>279</v>
+      <c r="B193" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="C193" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D193" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193"/>
@@ -5431,214 +5459,214 @@
       <c r="A194" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B194" t="s">
-        <v>280</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>280</v>
+      <c r="B194" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C194" t="s">
+        <v>114</v>
+      </c>
+      <c r="D194" t="s">
+        <v>114</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194" s="2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B195" t="s">
-        <v>148</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>148</v>
+      <c r="B195" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C195" t="s">
+        <v>115</v>
+      </c>
+      <c r="D195" t="s">
+        <v>115</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195" s="2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B196" t="s">
-        <v>144</v>
+      <c r="B196" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B197" t="s">
-        <v>145</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>145</v>
+      <c r="B197" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C197" t="s">
+        <v>278</v>
+      </c>
+      <c r="D197" t="s">
+        <v>278</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197"/>
       <c r="G197"/>
       <c r="H197" s="2" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B198" t="s">
-        <v>146</v>
+      <c r="B198" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198"/>
       <c r="G198"/>
       <c r="H198" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B199" t="s">
-        <v>147</v>
+      <c r="B199" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199"/>
       <c r="G199"/>
       <c r="H199" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B200" t="s">
-        <v>117</v>
+      <c r="B200" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200"/>
       <c r="G200"/>
       <c r="H200" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B201" t="s">
-        <v>118</v>
-      </c>
-      <c r="C201" t="s">
-        <v>118</v>
-      </c>
-      <c r="D201" t="s">
-        <v>118</v>
+      <c r="B201" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201"/>
       <c r="G201"/>
       <c r="H201" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B202" t="s">
-        <v>119</v>
-      </c>
-      <c r="C202" t="s">
-        <v>119</v>
-      </c>
-      <c r="D202" t="s">
-        <v>119</v>
+      <c r="B202" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202"/>
       <c r="G202"/>
       <c r="H202" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B203" t="s">
-        <v>120</v>
-      </c>
-      <c r="C203" t="s">
-        <v>120</v>
-      </c>
-      <c r="D203" t="s">
-        <v>120</v>
+      <c r="B203" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203" s="2" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B204" t="s">
-        <v>281</v>
-      </c>
-      <c r="C204" t="s">
-        <v>281</v>
-      </c>
-      <c r="D204" t="s">
-        <v>281</v>
+      <c r="B204" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204"/>
@@ -5651,74 +5679,74 @@
       <c r="A205" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B205" t="s">
-        <v>282</v>
+      <c r="B205" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="C205" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="D205" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="E205" s="4"/>
-      <c r="F205"/>
+      <c r="F205" s="4"/>
       <c r="G205"/>
       <c r="H205" s="2" t="s">
-        <v>61</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B206" t="s">
-        <v>283</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>283</v>
+      <c r="B206" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" t="s">
+        <v>118</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206"/>
       <c r="G206"/>
       <c r="H206" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B207" t="s">
-        <v>151</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>151</v>
+      <c r="B207" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" t="s">
+        <v>119</v>
+      </c>
+      <c r="D207" t="s">
+        <v>119</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207"/>
       <c r="G207"/>
       <c r="H207" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B208" t="s">
-        <v>121</v>
+      <c r="B208" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="C208" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D208" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208"/>
@@ -5731,114 +5759,114 @@
       <c r="A209" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B209" t="s">
-        <v>284</v>
+      <c r="B209" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="C209" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D209" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209"/>
       <c r="G209"/>
       <c r="H209" s="2" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B210" t="s">
-        <v>285</v>
+      <c r="B210" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D210" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210"/>
       <c r="G210"/>
       <c r="H210" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B211" t="s">
-        <v>286</v>
-      </c>
-      <c r="C211" t="s">
-        <v>286</v>
-      </c>
-      <c r="D211" t="s">
-        <v>286</v>
+      <c r="B211" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211"/>
       <c r="G211"/>
       <c r="H211" s="2" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B212" t="s">
-        <v>287</v>
-      </c>
-      <c r="C212" t="s">
-        <v>287</v>
-      </c>
-      <c r="D212" t="s">
-        <v>287</v>
+      <c r="B212" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212"/>
       <c r="G212"/>
       <c r="H212" s="2" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B213" t="s">
-        <v>288</v>
+      <c r="B213" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C213" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="D213" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213"/>
       <c r="G213"/>
       <c r="H213" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B214" t="s">
-        <v>289</v>
+      <c r="B214" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="C214" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D214" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214"/>
@@ -5851,14 +5879,14 @@
       <c r="A215" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B215" t="s">
-        <v>290</v>
+      <c r="B215" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="C215" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D215" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215"/>
@@ -5871,14 +5899,14 @@
       <c r="A216" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B216" t="s">
-        <v>291</v>
+      <c r="B216" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="C216" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D216" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216"/>
@@ -5891,154 +5919,154 @@
       <c r="A217" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B217" t="s">
-        <v>292</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>292</v>
+      <c r="B217" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C217" t="s">
+        <v>286</v>
+      </c>
+      <c r="D217" t="s">
+        <v>286</v>
       </c>
       <c r="E217" s="4"/>
       <c r="F217"/>
       <c r="G217"/>
       <c r="H217" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B218" t="s">
-        <v>293</v>
+      <c r="B218" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="C218" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D218" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E218" s="4"/>
       <c r="F218"/>
       <c r="G218"/>
       <c r="H218" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B219" t="s">
-        <v>122</v>
-      </c>
-      <c r="C219" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D219" s="14" t="s">
-        <v>122</v>
+      <c r="B219" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C219" t="s">
+        <v>288</v>
+      </c>
+      <c r="D219" t="s">
+        <v>288</v>
       </c>
       <c r="E219" s="4"/>
       <c r="F219"/>
       <c r="G219"/>
       <c r="H219" s="2" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B220" t="s">
-        <v>294</v>
+      <c r="B220" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="C220" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D220" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220"/>
       <c r="G220"/>
       <c r="H220" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B221" t="s">
-        <v>295</v>
+      <c r="B221" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="C221" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D221" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B222" t="s">
-        <v>123</v>
-      </c>
-      <c r="C222" t="s">
-        <v>123</v>
-      </c>
-      <c r="D222" t="s">
-        <v>123</v>
+      <c r="B222" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="E222" s="4"/>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B223" t="s">
-        <v>296</v>
+      <c r="B223" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="C223" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D223" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E223" s="4"/>
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223" s="2" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B224" t="s">
-        <v>297</v>
-      </c>
-      <c r="C224" t="s">
-        <v>297</v>
-      </c>
-      <c r="D224" t="s">
-        <v>297</v>
+      <c r="B224" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E224" s="4"/>
       <c r="F224"/>
@@ -6051,74 +6079,74 @@
       <c r="A225" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B225" t="s">
-        <v>298</v>
+      <c r="B225" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="C225" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D225" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="E225" s="4"/>
-      <c r="F225"/>
+      <c r="F225" s="4"/>
       <c r="G225"/>
       <c r="H225" s="2" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B226" t="s">
-        <v>299</v>
+      <c r="B226" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="C226" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D226" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E226" s="4"/>
       <c r="F226"/>
       <c r="G226"/>
       <c r="H226" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B227" t="s">
-        <v>300</v>
+      <c r="B227" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="C227" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D227" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E227" s="4"/>
       <c r="F227"/>
       <c r="G227"/>
       <c r="H227" s="2" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B228" t="s">
-        <v>301</v>
+      <c r="B228" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="C228" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="D228" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228"/>
@@ -6131,367 +6159,367 @@
       <c r="A229" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B229" t="s">
-        <v>302</v>
+      <c r="B229" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="C229" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D229" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E229" s="4"/>
       <c r="F229"/>
       <c r="G229"/>
       <c r="H229" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B230" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>158</v>
+      <c r="B230" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C230" t="s">
+        <v>296</v>
+      </c>
+      <c r="D230" t="s">
+        <v>296</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230"/>
       <c r="G230"/>
       <c r="H230" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B231" t="s">
-        <v>303</v>
+      <c r="B231" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="C231" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D231" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E231" s="4"/>
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B232" t="s">
-        <v>124</v>
+      <c r="B232" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="C232" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="D232" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="E232" s="4"/>
       <c r="F232"/>
       <c r="G232"/>
       <c r="H232" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B233" t="s">
-        <v>304</v>
+      <c r="B233" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="C233" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D233" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E233" s="4"/>
       <c r="F233"/>
       <c r="G233"/>
       <c r="H233" s="2" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B234" t="s">
-        <v>125</v>
+      <c r="B234" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="C234" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D234" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="E234" s="4"/>
       <c r="F234"/>
       <c r="G234"/>
       <c r="H234" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B235" t="s">
-        <v>305</v>
+      <c r="B235" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D235" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E235" s="4"/>
       <c r="F235"/>
       <c r="G235"/>
       <c r="H235" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B236" t="s">
-        <v>305</v>
-      </c>
-      <c r="C236" t="s">
-        <v>305</v>
-      </c>
-      <c r="D236" t="s">
-        <v>305</v>
+      <c r="B236" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="E236" s="4"/>
       <c r="F236"/>
       <c r="G236"/>
       <c r="H236" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B237" t="s">
-        <v>305</v>
+      <c r="B237" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="C237" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D237" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E237" s="4"/>
       <c r="F237"/>
       <c r="G237"/>
       <c r="H237" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B238" t="s">
-        <v>306</v>
+      <c r="B238" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="C238" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="D238" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="E238" s="4"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238" s="2" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B239" t="s">
-        <v>126</v>
+      <c r="B239" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="C239" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="D239" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239"/>
       <c r="G239"/>
       <c r="H239" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B240" t="s">
-        <v>127</v>
+      <c r="B240" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="C240" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D240" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240"/>
       <c r="G240"/>
       <c r="H240" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B241" t="s">
-        <v>128</v>
+      <c r="B241" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="C241" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="D241" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241"/>
       <c r="G241"/>
       <c r="H241" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B242" t="s">
-        <v>129</v>
+      <c r="B242" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="C242" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="D242" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242"/>
       <c r="G242"/>
       <c r="H242" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B243" t="s">
-        <v>130</v>
+      <c r="B243" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="D243" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243"/>
       <c r="G243"/>
       <c r="H243" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B244" t="s">
-        <v>131</v>
+      <c r="B244" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="C244" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="D244" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244"/>
       <c r="G244"/>
       <c r="H244" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B245" t="s">
-        <v>132</v>
+      <c r="B245" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="C245" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="D245" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245"/>
       <c r="G245"/>
       <c r="H245" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B246" t="s">
-        <v>307</v>
+      <c r="B246" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="C246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246"/>
       <c r="G246"/>
       <c r="H246" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="18" t="s">
         <v>307</v>
       </c>
       <c r="C247" t="s">
@@ -6504,14 +6532,14 @@
       <c r="F247"/>
       <c r="G247"/>
       <c r="H247" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="18" t="s">
         <v>307</v>
       </c>
       <c r="C248" t="s">
@@ -6531,27 +6559,27 @@
       <c r="A249" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B249" t="s">
-        <v>308</v>
+      <c r="B249" s="18" t="s">
+        <v>307</v>
       </c>
       <c r="C249" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D249" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249"/>
       <c r="G249"/>
       <c r="H249" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="18" t="s">
         <v>308</v>
       </c>
       <c r="C250" t="s">
@@ -6564,14 +6592,14 @@
       <c r="F250"/>
       <c r="G250"/>
       <c r="H250" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="18" t="s">
         <v>308</v>
       </c>
       <c r="C251" t="s">
@@ -6584,54 +6612,54 @@
       <c r="F251"/>
       <c r="G251"/>
       <c r="H251" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B252" t="s">
-        <v>309</v>
+      <c r="B252" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="C252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252"/>
       <c r="G252"/>
       <c r="H252" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B253" t="s">
-        <v>309</v>
+      <c r="B253" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="C253" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D253" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253"/>
       <c r="G253"/>
       <c r="H253" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="18" t="s">
         <v>309</v>
       </c>
       <c r="C254" t="s">
@@ -6644,14 +6672,14 @@
       <c r="F254"/>
       <c r="G254"/>
       <c r="H254" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="18" t="s">
         <v>309</v>
       </c>
       <c r="C255" t="s">
@@ -6664,14 +6692,14 @@
       <c r="F255"/>
       <c r="G255"/>
       <c r="H255" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="18" t="s">
         <v>310</v>
       </c>
       <c r="C256" t="s">
@@ -6682,16 +6710,15 @@
       </c>
       <c r="E256" s="4"/>
       <c r="F256"/>
-      <c r="G256"/>
       <c r="H256" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="18" t="s">
         <v>310</v>
       </c>
       <c r="C257" t="s">
@@ -6702,7 +6729,6 @@
       </c>
       <c r="E257" s="4"/>
       <c r="F257"/>
-      <c r="G257"/>
       <c r="H257" s="2" t="s">
         <v>178</v>
       </c>
@@ -6711,45 +6737,43 @@
       <c r="A258" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B258" t="s">
-        <v>311</v>
+      <c r="B258" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="C258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E258" s="4"/>
-      <c r="F258"/>
       <c r="H258" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B259" t="s">
-        <v>311</v>
+      <c r="B259" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="C259" t="s">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="D259" t="s">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="E259" s="4"/>
-      <c r="F259"/>
       <c r="H259" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="18" t="s">
         <v>311</v>
       </c>
       <c r="C260" t="s">
@@ -6759,6 +6783,7 @@
         <v>311</v>
       </c>
       <c r="E260" s="4"/>
+      <c r="F260"/>
       <c r="H260" s="2" t="s">
         <v>178</v>
       </c>
@@ -6767,25 +6792,26 @@
       <c r="A261" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B261" t="s">
-        <v>133</v>
+      <c r="B261" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="C261" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="D261" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="E261" s="4"/>
+      <c r="F261" s="6"/>
       <c r="H261" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="18" t="s">
         <v>312</v>
       </c>
       <c r="C262" t="s">
@@ -6795,16 +6821,16 @@
         <v>312</v>
       </c>
       <c r="E262" s="4"/>
-      <c r="F262"/>
+      <c r="F262" s="6"/>
       <c r="H262" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="18" t="s">
         <v>312</v>
       </c>
       <c r="C263" t="s">
@@ -6814,7 +6840,7 @@
         <v>312</v>
       </c>
       <c r="E263" s="4"/>
-      <c r="F263"/>
+      <c r="F263" s="6"/>
       <c r="H263" s="2" t="s">
         <v>178</v>
       </c>
@@ -6823,26 +6849,26 @@
       <c r="A264" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B264" t="s">
-        <v>313</v>
+      <c r="B264" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="C264" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D264" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E264" s="4"/>
-      <c r="F264"/>
+      <c r="F264" s="6"/>
       <c r="H264" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="18" t="s">
         <v>313</v>
       </c>
       <c r="C265" t="s">
@@ -6852,26 +6878,27 @@
         <v>313</v>
       </c>
       <c r="E265" s="4"/>
-      <c r="F265"/>
+      <c r="F265" s="6"/>
       <c r="H265" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B266" t="s">
-        <v>313</v>
+      <c r="B266" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="C266" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="D266" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="E266" s="4"/>
-      <c r="F266"/>
+      <c r="F266" s="6"/>
+      <c r="G266"/>
       <c r="H266" s="2" t="s">
         <v>178</v>
       </c>
@@ -6880,172 +6907,239 @@
       <c r="A267" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B267" t="s">
-        <v>314</v>
+      <c r="B267" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="C267" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D267" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E267" s="4"/>
-      <c r="F267"/>
+      <c r="F267" s="6"/>
+      <c r="G267"/>
       <c r="H267" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B268" t="s">
-        <v>134</v>
+      <c r="B268" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="C268" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="D268" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="E268" s="4"/>
-      <c r="F268" s="6"/>
+      <c r="F268"/>
       <c r="G268"/>
       <c r="H268" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B269" t="s">
-        <v>314</v>
+      <c r="B269" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="C269" t="s">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="D269" t="s">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="E269" s="4"/>
-      <c r="F269" s="6"/>
+      <c r="F269"/>
       <c r="G269"/>
       <c r="H269" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270"/>
-      <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
+      <c r="A270" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C270" t="s">
+        <v>127</v>
+      </c>
+      <c r="D270" t="s">
+        <v>127</v>
+      </c>
       <c r="E270" s="4"/>
-      <c r="F270" s="6"/>
+      <c r="F270"/>
       <c r="G270"/>
+      <c r="H270" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271"/>
-      <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
+      <c r="A271" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C271" t="s">
+        <v>128</v>
+      </c>
+      <c r="D271" t="s">
+        <v>128</v>
+      </c>
       <c r="E271" s="4"/>
-      <c r="F271" s="6"/>
+      <c r="F271"/>
       <c r="G271"/>
+      <c r="H271" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272"/>
-      <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
+      <c r="A272" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C272" t="s">
+        <v>129</v>
+      </c>
+      <c r="D272" t="s">
+        <v>129</v>
+      </c>
       <c r="E272" s="4"/>
-      <c r="F272" s="6"/>
+      <c r="F272"/>
       <c r="G272"/>
+      <c r="H272" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
+      <c r="A273" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C273" t="s">
+        <v>130</v>
+      </c>
+      <c r="D273" t="s">
+        <v>130</v>
+      </c>
       <c r="E273" s="4"/>
-      <c r="F273" s="6"/>
+      <c r="F273"/>
       <c r="G273"/>
+      <c r="H273" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
+      <c r="A274" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C274" t="s">
+        <v>131</v>
+      </c>
+      <c r="D274" t="s">
+        <v>131</v>
+      </c>
       <c r="E274" s="4"/>
-      <c r="F274" s="6"/>
+      <c r="F274"/>
       <c r="G274"/>
+      <c r="H274" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275"/>
+      <c r="A275" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C275" t="s">
+        <v>132</v>
+      </c>
+      <c r="D275" t="s">
+        <v>132</v>
+      </c>
       <c r="E275" s="4"/>
-      <c r="F275" s="6"/>
+      <c r="F275"/>
       <c r="G275"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H275" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276"/>
-      <c r="B276"/>
+      <c r="B276" s="18"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276" s="4"/>
       <c r="F276" s="6"/>
-      <c r="G276"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H276"/>
+    </row>
+    <row r="277" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277"/>
-      <c r="B277"/>
+      <c r="B277" s="18"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277" s="4"/>
       <c r="F277" s="6"/>
-      <c r="G277"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H277"/>
+    </row>
+    <row r="278" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278"/>
-      <c r="B278"/>
+      <c r="B278" s="18"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278" s="4"/>
       <c r="F278" s="6"/>
-      <c r="G278"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H278"/>
+    </row>
+    <row r="279" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279"/>
-      <c r="B279"/>
+      <c r="B279" s="18"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279" s="4"/>
       <c r="F279" s="6"/>
-      <c r="G279"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H279"/>
+    </row>
+    <row r="280" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280"/>
-      <c r="B280"/>
+      <c r="B280" s="18"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280" s="4"/>
       <c r="F280" s="6"/>
       <c r="H280"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281"/>
-      <c r="B281"/>
+      <c r="B281" s="18"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281" s="4"/>
       <c r="F281" s="6"/>
       <c r="H281"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282"/>
-      <c r="B282"/>
+      <c r="B282" s="18"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282" s="4"/>
@@ -7054,7 +7148,7 @@
     </row>
     <row r="283" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283"/>
-      <c r="B283"/>
+      <c r="B283" s="18"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283" s="4"/>
@@ -7063,7 +7157,7 @@
     </row>
     <row r="284" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284"/>
-      <c r="B284"/>
+      <c r="B284" s="18"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284" s="4"/>
@@ -7072,7 +7166,7 @@
     </row>
     <row r="285" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285"/>
-      <c r="B285"/>
+      <c r="B285" s="18"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285" s="4"/>
@@ -7081,7 +7175,7 @@
     </row>
     <row r="286" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286"/>
-      <c r="B286"/>
+      <c r="B286" s="18"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286" s="4"/>
@@ -7090,7 +7184,7 @@
     </row>
     <row r="287" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287"/>
-      <c r="B287"/>
+      <c r="B287" s="18"/>
       <c r="C287"/>
       <c r="D287"/>
       <c r="E287" s="4"/>
@@ -7099,7 +7193,7 @@
     </row>
     <row r="288" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288"/>
-      <c r="B288"/>
+      <c r="B288" s="18"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="E288" s="4"/>
@@ -7108,7 +7202,7 @@
     </row>
     <row r="289" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289"/>
-      <c r="B289"/>
+      <c r="B289" s="18"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="E289" s="4"/>
@@ -7117,7 +7211,7 @@
     </row>
     <row r="290" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290"/>
-      <c r="B290"/>
+      <c r="B290" s="18"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="E290" s="4"/>
@@ -7126,7 +7220,7 @@
     </row>
     <row r="291" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291"/>
-      <c r="B291"/>
+      <c r="B291" s="18"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="E291" s="4"/>
@@ -7135,7 +7229,7 @@
     </row>
     <row r="292" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292"/>
-      <c r="B292"/>
+      <c r="B292" s="18"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292" s="4"/>
@@ -7144,7 +7238,7 @@
     </row>
     <row r="293" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293"/>
-      <c r="B293"/>
+      <c r="B293" s="18"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293" s="4"/>
@@ -7153,7 +7247,7 @@
     </row>
     <row r="294" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294"/>
-      <c r="B294"/>
+      <c r="B294" s="18"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294" s="4"/>
@@ -7162,7 +7256,7 @@
     </row>
     <row r="295" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295"/>
-      <c r="B295"/>
+      <c r="B295" s="18"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295" s="4"/>
@@ -7171,7 +7265,7 @@
     </row>
     <row r="296" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296"/>
-      <c r="B296"/>
+      <c r="B296" s="18"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="E296" s="4"/>
@@ -7180,7 +7274,7 @@
     </row>
     <row r="297" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297"/>
-      <c r="B297"/>
+      <c r="B297" s="18"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="E297" s="4"/>
@@ -7189,7 +7283,7 @@
     </row>
     <row r="298" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298"/>
-      <c r="B298"/>
+      <c r="B298" s="18"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="E298" s="4"/>
@@ -7198,7 +7292,7 @@
     </row>
     <row r="299" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299"/>
-      <c r="B299"/>
+      <c r="B299" s="18"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="E299" s="4"/>
@@ -7207,7 +7301,7 @@
     </row>
     <row r="300" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300"/>
-      <c r="B300"/>
+      <c r="B300" s="18"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300" s="4"/>
@@ -7216,7 +7310,7 @@
     </row>
     <row r="301" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301"/>
-      <c r="B301"/>
+      <c r="B301" s="18"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301" s="4"/>
@@ -7225,7 +7319,7 @@
     </row>
     <row r="302" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302"/>
-      <c r="B302"/>
+      <c r="B302" s="18"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302" s="4"/>
@@ -7234,7 +7328,7 @@
     </row>
     <row r="303" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303"/>
-      <c r="B303"/>
+      <c r="B303" s="18"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303" s="4"/>
@@ -7243,7 +7337,7 @@
     </row>
     <row r="304" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304"/>
-      <c r="B304"/>
+      <c r="B304" s="18"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304" s="4"/>
@@ -7252,7 +7346,7 @@
     </row>
     <row r="305" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305"/>
-      <c r="B305"/>
+      <c r="B305" s="18"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305" s="4"/>
@@ -7261,7 +7355,7 @@
     </row>
     <row r="306" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306"/>
-      <c r="B306"/>
+      <c r="B306" s="18"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306" s="4"/>
@@ -7270,7 +7364,7 @@
     </row>
     <row r="307" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307"/>
-      <c r="B307"/>
+      <c r="B307" s="18"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="E307" s="4"/>
@@ -7279,7 +7373,7 @@
     </row>
     <row r="308" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308"/>
-      <c r="B308"/>
+      <c r="B308" s="18"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308" s="4"/>
@@ -7288,7 +7382,7 @@
     </row>
     <row r="309" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309"/>
-      <c r="B309"/>
+      <c r="B309" s="18"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="E309" s="4"/>
@@ -7297,7 +7391,7 @@
     </row>
     <row r="310" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310"/>
-      <c r="B310"/>
+      <c r="B310" s="18"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310" s="4"/>
@@ -7306,7 +7400,7 @@
     </row>
     <row r="311" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311"/>
-      <c r="B311"/>
+      <c r="B311" s="18"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311" s="4"/>
@@ -7315,7 +7409,7 @@
     </row>
     <row r="312" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312"/>
-      <c r="B312"/>
+      <c r="B312" s="18"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="E312" s="4"/>
@@ -7324,7 +7418,7 @@
     </row>
     <row r="313" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313"/>
-      <c r="B313"/>
+      <c r="B313" s="18"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="E313" s="4"/>
@@ -7333,7 +7427,7 @@
     </row>
     <row r="314" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314"/>
-      <c r="B314"/>
+      <c r="B314" s="18"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="E314" s="4"/>
@@ -7342,7 +7436,7 @@
     </row>
     <row r="315" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315"/>
-      <c r="B315"/>
+      <c r="B315" s="18"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315" s="4"/>
@@ -7351,7 +7445,7 @@
     </row>
     <row r="316" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316"/>
-      <c r="B316"/>
+      <c r="B316" s="18"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316" s="4"/>
@@ -7360,7 +7454,7 @@
     </row>
     <row r="317" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317"/>
-      <c r="B317"/>
+      <c r="B317" s="18"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="E317" s="4"/>
@@ -7369,7 +7463,7 @@
     </row>
     <row r="318" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318"/>
-      <c r="B318"/>
+      <c r="B318" s="18"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318" s="4"/>
@@ -7378,7 +7472,7 @@
     </row>
     <row r="319" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319"/>
-      <c r="B319"/>
+      <c r="B319" s="18"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319" s="4"/>
@@ -7387,7 +7481,7 @@
     </row>
     <row r="320" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320"/>
-      <c r="B320"/>
+      <c r="B320" s="18"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320" s="4"/>
@@ -7396,7 +7490,7 @@
     </row>
     <row r="321" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321"/>
-      <c r="B321"/>
+      <c r="B321" s="18"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321" s="4"/>
@@ -7405,7 +7499,7 @@
     </row>
     <row r="322" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322"/>
-      <c r="B322"/>
+      <c r="B322" s="18"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322" s="4"/>
@@ -7414,7 +7508,7 @@
     </row>
     <row r="323" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323"/>
-      <c r="B323"/>
+      <c r="B323" s="21"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323" s="4"/>
@@ -7423,7 +7517,7 @@
     </row>
     <row r="324" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324"/>
-      <c r="B324"/>
+      <c r="B324" s="21"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324" s="4"/>
@@ -7432,7 +7526,7 @@
     </row>
     <row r="325" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325"/>
-      <c r="B325"/>
+      <c r="B325" s="18"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325" s="4"/>
@@ -7441,7 +7535,7 @@
     </row>
     <row r="326" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326"/>
-      <c r="B326"/>
+      <c r="B326" s="18"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326" s="4"/>
@@ -7450,7 +7544,7 @@
     </row>
     <row r="327" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327"/>
-      <c r="B327"/>
+      <c r="B327" s="18"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327" s="4"/>
@@ -7459,7 +7553,7 @@
     </row>
     <row r="328" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328"/>
-      <c r="B328"/>
+      <c r="B328" s="18"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328" s="4"/>
@@ -7468,7 +7562,7 @@
     </row>
     <row r="329" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329"/>
-      <c r="B329"/>
+      <c r="B329" s="18"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329" s="4"/>
@@ -7477,7 +7571,7 @@
     </row>
     <row r="330" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330"/>
-      <c r="B330" s="12"/>
+      <c r="B330" s="18"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330" s="4"/>
@@ -7486,1031 +7580,968 @@
     </row>
     <row r="331" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331"/>
-      <c r="B331" s="12"/>
+      <c r="B331" s="18"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331" s="4"/>
       <c r="F331" s="6"/>
       <c r="H331"/>
     </row>
-    <row r="332" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332"/>
-      <c r="B332"/>
+      <c r="B332" s="18"/>
       <c r="C332"/>
       <c r="D332"/>
-      <c r="E332" s="4"/>
-      <c r="F332" s="6"/>
       <c r="H332"/>
     </row>
-    <row r="333" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333"/>
-      <c r="B333"/>
+      <c r="B333" s="18"/>
       <c r="C333"/>
       <c r="D333"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="6"/>
       <c r="H333"/>
     </row>
-    <row r="334" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334"/>
-      <c r="B334"/>
+      <c r="B334" s="18"/>
       <c r="C334"/>
       <c r="D334"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="6"/>
       <c r="H334"/>
     </row>
-    <row r="335" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335"/>
-      <c r="B335"/>
+      <c r="B335" s="18"/>
       <c r="C335"/>
       <c r="D335"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="6"/>
       <c r="H335"/>
     </row>
-    <row r="336" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336"/>
-      <c r="B336"/>
+      <c r="B336" s="18"/>
       <c r="C336"/>
       <c r="D336"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="6"/>
       <c r="H336"/>
     </row>
-    <row r="337" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337"/>
-      <c r="B337"/>
+      <c r="B337" s="18"/>
       <c r="C337"/>
       <c r="D337"/>
-      <c r="E337" s="4"/>
-      <c r="F337" s="6"/>
       <c r="H337"/>
     </row>
-    <row r="338" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338"/>
-      <c r="B338"/>
+      <c r="B338" s="18"/>
       <c r="C338"/>
       <c r="D338"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="6"/>
       <c r="H338"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339"/>
-      <c r="B339"/>
+      <c r="B339" s="18"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="H339"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340"/>
-      <c r="B340"/>
+      <c r="B340" s="18"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="H340"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341"/>
-      <c r="B341"/>
+      <c r="B341" s="18"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="H341"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342"/>
-      <c r="B342"/>
+      <c r="B342" s="18"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="H342"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343"/>
-      <c r="B343"/>
+      <c r="B343" s="18"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="H343"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344"/>
-      <c r="B344"/>
+      <c r="B344" s="18"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="H344"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345"/>
-      <c r="B345"/>
+      <c r="B345" s="18"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="H345"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A346"/>
-      <c r="B346"/>
+      <c r="B346" s="18"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="H346"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A347"/>
-      <c r="B347"/>
+      <c r="B347" s="18"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="H347"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A348"/>
-      <c r="B348"/>
+      <c r="B348" s="18"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="H348"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349"/>
-      <c r="B349"/>
+      <c r="B349" s="18"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="H349"/>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A350"/>
-      <c r="B350"/>
+      <c r="B350" s="18"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="H350"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351"/>
-      <c r="B351"/>
+      <c r="B351" s="18"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="H351"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352"/>
-      <c r="B352"/>
+      <c r="B352" s="18"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="H352"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353"/>
-      <c r="B353"/>
+      <c r="B353" s="18"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="H353"/>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A354"/>
-      <c r="B354"/>
+      <c r="B354" s="18"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="H354"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355"/>
-      <c r="B355"/>
+      <c r="B355" s="18"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="H355"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A356"/>
-      <c r="B356"/>
+      <c r="B356" s="18"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="H356"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357"/>
-      <c r="B357"/>
+      <c r="B357" s="18"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="H357"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358"/>
-      <c r="B358"/>
+      <c r="B358" s="18"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="H358"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359"/>
-      <c r="B359"/>
+      <c r="B359" s="18"/>
       <c r="C359"/>
       <c r="D359"/>
       <c r="H359"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A360"/>
-      <c r="B360"/>
+      <c r="B360" s="18"/>
       <c r="C360"/>
       <c r="D360"/>
       <c r="H360"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361"/>
-      <c r="B361"/>
+      <c r="B361" s="18"/>
       <c r="C361"/>
       <c r="D361"/>
       <c r="H361"/>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A362"/>
-      <c r="B362"/>
+      <c r="B362" s="18"/>
       <c r="C362"/>
       <c r="D362"/>
       <c r="H362"/>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A363"/>
-      <c r="B363"/>
+      <c r="B363" s="18"/>
       <c r="C363"/>
       <c r="D363"/>
       <c r="H363"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364"/>
-      <c r="B364"/>
+      <c r="B364" s="18"/>
       <c r="C364"/>
       <c r="D364"/>
       <c r="H364"/>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A365"/>
-      <c r="B365"/>
+      <c r="B365" s="18"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="H365"/>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A366"/>
-      <c r="B366"/>
+      <c r="B366" s="18"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="H366"/>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367"/>
-      <c r="B367"/>
+      <c r="B367" s="18"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="H367"/>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A368"/>
-      <c r="B368"/>
+      <c r="B368" s="18"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="H368"/>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369"/>
-      <c r="B369"/>
+      <c r="B369" s="18"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="H369"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370"/>
-      <c r="B370"/>
+      <c r="B370" s="18"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="H370"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A371"/>
-      <c r="B371"/>
+      <c r="B371" s="18"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="H371"/>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372"/>
-      <c r="B372"/>
+      <c r="B372" s="21"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="H372"/>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373"/>
-      <c r="B373"/>
+      <c r="B373" s="21"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="H373"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374"/>
-      <c r="B374"/>
+      <c r="B374" s="18"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="H374"/>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A375"/>
-      <c r="B375"/>
+      <c r="B375" s="18"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="H375"/>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376"/>
-      <c r="B376"/>
+      <c r="B376" s="18"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="H376"/>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A377"/>
-      <c r="B377"/>
+      <c r="B377" s="18"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="H377"/>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A378"/>
-      <c r="B378"/>
+      <c r="B378" s="18"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="H378"/>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A379"/>
-      <c r="B379" s="12"/>
+      <c r="B379" s="18"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="H379"/>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A380"/>
-      <c r="B380" s="12"/>
+      <c r="B380" s="18"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="H380"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381"/>
-      <c r="B381"/>
+      <c r="B381" s="18"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="H381"/>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382"/>
-      <c r="B382"/>
+      <c r="B382" s="18"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="H382"/>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383"/>
-      <c r="B383"/>
+      <c r="B383" s="18"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="H383"/>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384"/>
-      <c r="B384"/>
+      <c r="B384" s="18"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="H384"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385"/>
-      <c r="B385"/>
+      <c r="B385" s="18"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="H385"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386"/>
-      <c r="B386"/>
+      <c r="B386" s="18"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="H386"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A387"/>
-      <c r="B387"/>
+      <c r="B387" s="18"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="H387"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388"/>
-      <c r="B388"/>
+      <c r="B388" s="18"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="H388"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A389"/>
-      <c r="B389"/>
-      <c r="C389"/>
-      <c r="D389"/>
+      <c r="B389" s="18"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
       <c r="H389"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A390"/>
-      <c r="B390"/>
+      <c r="B390" s="18"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="H390"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391"/>
-      <c r="B391"/>
+      <c r="B391" s="18"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="H391"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392"/>
-      <c r="B392"/>
-      <c r="C392"/>
-      <c r="D392"/>
+      <c r="B392" s="18"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
       <c r="H392"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393"/>
-      <c r="B393"/>
+      <c r="B393" s="18"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="H393"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394"/>
-      <c r="B394"/>
+      <c r="B394" s="18"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="H394"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A395"/>
-      <c r="B395"/>
+      <c r="B395" s="18"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="H395"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396"/>
-      <c r="B396"/>
-      <c r="C396" s="12"/>
-      <c r="D396" s="12"/>
+      <c r="B396" s="18"/>
+      <c r="C396"/>
+      <c r="D396"/>
       <c r="H396"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A397"/>
-      <c r="B397"/>
+      <c r="B397" s="18"/>
       <c r="C397"/>
       <c r="D397"/>
       <c r="H397"/>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398"/>
-      <c r="B398"/>
+      <c r="B398" s="18"/>
       <c r="C398"/>
       <c r="D398"/>
       <c r="H398"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A399"/>
-      <c r="B399"/>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
+      <c r="B399" s="18"/>
+      <c r="C399"/>
+      <c r="D399"/>
       <c r="H399"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A400"/>
-      <c r="B400"/>
+      <c r="B400" s="18"/>
       <c r="C400"/>
       <c r="D400"/>
       <c r="H400"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A401"/>
-      <c r="B401"/>
+      <c r="B401" s="18"/>
       <c r="C401"/>
       <c r="D401"/>
       <c r="H401"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A402"/>
-      <c r="B402"/>
+      <c r="B402" s="18"/>
       <c r="C402"/>
       <c r="D402"/>
       <c r="H402"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403"/>
-      <c r="B403"/>
+      <c r="B403" s="18"/>
       <c r="C403"/>
       <c r="D403"/>
       <c r="H403"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404"/>
-      <c r="B404"/>
+      <c r="B404" s="18"/>
       <c r="C404"/>
       <c r="D404"/>
       <c r="H404"/>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A405"/>
-      <c r="B405"/>
+      <c r="B405" s="18"/>
       <c r="C405"/>
       <c r="D405"/>
       <c r="H405"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406"/>
-      <c r="B406"/>
+      <c r="B406" s="18"/>
       <c r="C406"/>
       <c r="D406"/>
       <c r="H406"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A407"/>
-      <c r="B407"/>
+      <c r="B407" s="18"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="H407"/>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A408"/>
-      <c r="B408"/>
+      <c r="B408" s="18"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="H408"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A409"/>
-      <c r="B409"/>
+      <c r="B409" s="18"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="H409"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A410"/>
-      <c r="B410"/>
+      <c r="B410" s="18"/>
       <c r="C410"/>
       <c r="D410"/>
       <c r="H410"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A411"/>
-      <c r="B411"/>
+      <c r="B411" s="18"/>
       <c r="C411"/>
       <c r="D411"/>
       <c r="H411"/>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A412"/>
-      <c r="B412"/>
+      <c r="B412" s="18"/>
       <c r="C412"/>
       <c r="D412"/>
       <c r="H412"/>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413"/>
-      <c r="B413"/>
+      <c r="B413" s="18"/>
       <c r="C413"/>
       <c r="D413"/>
       <c r="H413"/>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414"/>
-      <c r="B414"/>
+      <c r="B414" s="18"/>
       <c r="C414"/>
       <c r="D414"/>
       <c r="H414"/>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415"/>
-      <c r="B415"/>
+      <c r="B415" s="18"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="H415"/>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416"/>
-      <c r="B416"/>
+      <c r="B416" s="18"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="H416"/>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417"/>
-      <c r="B417"/>
+      <c r="B417" s="18"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="H417"/>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418"/>
-      <c r="B418"/>
+      <c r="B418" s="18"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="H418"/>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A419"/>
-      <c r="B419"/>
+      <c r="B419" s="18"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="H419"/>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420"/>
-      <c r="B420"/>
+      <c r="B420" s="18"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="H420"/>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421"/>
-      <c r="B421"/>
+      <c r="B421" s="18"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="H421"/>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422"/>
-      <c r="B422"/>
+      <c r="B422" s="18"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="H422"/>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423"/>
-      <c r="B423"/>
+      <c r="B423" s="18"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="H423"/>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A424"/>
-      <c r="B424"/>
+      <c r="B424" s="18"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="H424"/>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A425"/>
-      <c r="B425"/>
+      <c r="B425" s="18"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="H425"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A426"/>
-      <c r="B426"/>
+      <c r="B426" s="18"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="H426"/>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427"/>
-      <c r="B427"/>
+      <c r="B427" s="18"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="H427"/>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A428"/>
-      <c r="B428"/>
+      <c r="B428" s="18"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="H428"/>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429"/>
-      <c r="B429"/>
+      <c r="B429" s="18"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="H429"/>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430"/>
-      <c r="B430"/>
+      <c r="B430" s="18"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="H430"/>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A431"/>
-      <c r="B431"/>
+      <c r="B431" s="18"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="H431"/>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432"/>
-      <c r="B432"/>
+      <c r="B432" s="18"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="H432"/>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433"/>
-      <c r="B433"/>
+      <c r="B433" s="18"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="H433"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A434"/>
-      <c r="B434"/>
+      <c r="B434" s="18"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="H434"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A435"/>
-      <c r="B435"/>
+      <c r="B435" s="18"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="H435"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436"/>
-      <c r="B436"/>
+      <c r="B436" s="18"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="H436"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437"/>
-      <c r="B437"/>
+      <c r="B437" s="18"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="H437"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A438"/>
-      <c r="B438"/>
+      <c r="B438" s="18"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="H438"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439"/>
-      <c r="B439"/>
+      <c r="B439" s="18"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="H439"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A440"/>
-      <c r="B440"/>
+      <c r="B440" s="18"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="H440"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A441"/>
-      <c r="B441"/>
+      <c r="B441" s="18"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="H441"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A442"/>
-      <c r="B442"/>
+      <c r="B442" s="18"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="H442"/>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A443"/>
-      <c r="B443"/>
+      <c r="B443" s="18"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="H443"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444"/>
-      <c r="B444"/>
+      <c r="B444" s="18"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="H444"/>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445"/>
-      <c r="B445"/>
+      <c r="B445" s="18"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="H445"/>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446"/>
-      <c r="B446"/>
+      <c r="B446" s="18"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="H446"/>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
-      <c r="D447"/>
+      <c r="B447" s="22"/>
+      <c r="C447" s="10"/>
+      <c r="D447" s="10"/>
       <c r="H447"/>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A448"/>
-      <c r="B448"/>
+      <c r="B448" s="18"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="H448"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449"/>
-      <c r="B449"/>
+      <c r="B449" s="18"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="H449"/>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450"/>
-      <c r="B450"/>
-      <c r="C450"/>
-      <c r="D450"/>
+      <c r="B450" s="22"/>
+      <c r="C450" s="10"/>
+      <c r="D450" s="10"/>
       <c r="H450"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A451"/>
-      <c r="B451"/>
+      <c r="B451" s="18"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="H451"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A452"/>
-      <c r="B452"/>
+      <c r="B452" s="18"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="H452"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A453"/>
-      <c r="B453"/>
+      <c r="B453" s="18"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="H453"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A454"/>
-      <c r="B454" s="10"/>
-      <c r="C454" s="10"/>
-      <c r="D454" s="10"/>
+      <c r="B454" s="18"/>
+      <c r="C454"/>
+      <c r="D454"/>
       <c r="H454"/>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A455"/>
-      <c r="B455"/>
+      <c r="B455" s="18"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="H455"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456"/>
-      <c r="B456"/>
+      <c r="B456" s="18"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="H456"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A457"/>
-      <c r="B457" s="10"/>
-      <c r="C457" s="10"/>
-      <c r="D457" s="10"/>
+      <c r="B457" s="18"/>
+      <c r="C457"/>
+      <c r="D457"/>
       <c r="H457"/>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A458"/>
-      <c r="B458"/>
+      <c r="B458" s="18"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="H458"/>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459"/>
-      <c r="B459"/>
+      <c r="B459" s="18"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="H459"/>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A460"/>
-      <c r="B460"/>
+      <c r="B460" s="18"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="H460"/>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461"/>
-      <c r="B461"/>
+      <c r="B461" s="18"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="H461"/>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A462"/>
-      <c r="B462"/>
+      <c r="B462" s="18"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="H462"/>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A463"/>
-      <c r="B463"/>
+      <c r="B463" s="18"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="H463"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A464"/>
-      <c r="B464"/>
+      <c r="B464" s="18"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="H464"/>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A465"/>
-      <c r="B465"/>
+      <c r="B465" s="18"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="H465"/>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A466"/>
-      <c r="B466"/>
+      <c r="B466" s="18"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="H466"/>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A467"/>
-      <c r="B467"/>
+      <c r="B467" s="18"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="H467"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A468"/>
-      <c r="B468"/>
-      <c r="C468"/>
-      <c r="D468"/>
-      <c r="H468"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A469"/>
-      <c r="B469"/>
-      <c r="C469"/>
-      <c r="D469"/>
-      <c r="H469"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A470"/>
-      <c r="B470"/>
-      <c r="C470"/>
-      <c r="D470"/>
-      <c r="H470"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A471"/>
-      <c r="B471"/>
-      <c r="C471"/>
-      <c r="D471"/>
-      <c r="H471"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A472"/>
-      <c r="B472"/>
-      <c r="C472"/>
-      <c r="D472"/>
-      <c r="H472"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A473"/>
-      <c r="B473"/>
-      <c r="C473"/>
-      <c r="D473"/>
-      <c r="H473"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A474"/>
-      <c r="B474"/>
-      <c r="C474"/>
-      <c r="D474"/>
-      <c r="H474"/>
-    </row>
   </sheetData>
-  <sortState ref="A7:F14">
-    <sortCondition ref="B7:B14"/>
+  <sortState ref="A29:H267">
+    <sortCondition ref="B29:B267"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Medicine Inventory/ESPENHealthFacilities.xlsx
+++ b/Medicine Inventory/ESPENHealthFacilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Medicine Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B014955-89B4-49F7-ADD4-C7451F6B6007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF3375-11B4-4797-BD7F-547CFEE0080A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -311,18 +311,12 @@
     <t>Loukanga 1</t>
   </si>
   <si>
-    <t>Loukanga 2</t>
-  </si>
-  <si>
     <t>Loukouangou</t>
   </si>
   <si>
     <t>Loutini</t>
   </si>
   <si>
-    <t>Mabenga</t>
-  </si>
-  <si>
     <t>Mafouma</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>Nkama</t>
   </si>
   <si>
-    <t>Ntoula</t>
-  </si>
-  <si>
     <t>Nyanga Paysannat</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>Poumbou</t>
   </si>
   <si>
-    <t>Samba Alphonse</t>
-  </si>
-  <si>
     <t>Souangui 1</t>
   </si>
   <si>
@@ -947,15 +935,6 @@
     <t>YENGOLA</t>
   </si>
   <si>
-    <t>ZONE 1</t>
-  </si>
-  <si>
-    <t>ZONE 10</t>
-  </si>
-  <si>
-    <t>ZONE 2</t>
-  </si>
-  <si>
     <t>ZONE 3</t>
   </si>
   <si>
@@ -965,9 +944,6 @@
     <t>ZONE 5</t>
   </si>
   <si>
-    <t>ZONE 6</t>
-  </si>
-  <si>
     <t>ZONE 7</t>
   </si>
   <si>
@@ -993,6 +969,30 @@
   </si>
   <si>
     <t>MABENGA</t>
+  </si>
+  <si>
+    <t>BOUENZA</t>
+  </si>
+  <si>
+    <t>Mayanou</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
+    <t>Zone 4</t>
+  </si>
+  <si>
+    <t>Zone 5</t>
+  </si>
+  <si>
+    <t>Zone 6</t>
+  </si>
+  <si>
+    <t>Zone 8</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1169,7 +1169,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1463,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
@@ -1605,19 +1604,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
@@ -1625,19 +1624,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>143</v>
-      </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -1743,15 +1742,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:A275"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.609375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="32" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.109375" style="2" customWidth="1"/>
@@ -1805,14 +1804,14 @@
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>168</v>
+      <c r="B3" t="s">
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>31</v>
@@ -1823,14 +1822,14 @@
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>169</v>
+      <c r="B4" t="s">
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -1841,14 +1840,14 @@
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>170</v>
+      <c r="B5" t="s">
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
@@ -1859,14 +1858,14 @@
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>171</v>
+      <c r="B6" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
@@ -1877,151 +1876,151 @@
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
+      <c r="B8" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" t="s">
-        <v>314</v>
+      <c r="B9" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>172</v>
+      <c r="B10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
+      <c r="B12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" t="s">
-        <v>173</v>
+      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2033,14 +2032,14 @@
       <c r="E15" s="4"/>
       <c r="F15"/>
       <c r="G15" s="13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2052,25 +2051,25 @@
       <c r="E16" s="4"/>
       <c r="F16"/>
       <c r="G16" s="13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>315</v>
+      <c r="B17" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17"/>
-      <c r="G17" t="s">
+      <c r="G17" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2078,33 +2077,33 @@
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>176</v>
+      <c r="B18" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18"/>
       <c r="G18" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>177</v>
+      <c r="B19" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19"/>
@@ -2116,14 +2115,14 @@
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>178</v>
+      <c r="B20" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20"/>
@@ -2135,14 +2134,14 @@
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>179</v>
+      <c r="B21" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21"/>
@@ -2154,45 +2153,45 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>180</v>
+      <c r="B22" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22"/>
       <c r="G22" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>181</v>
+      <c r="B23" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2204,14 +2203,14 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -2223,64 +2222,64 @@
       <c r="E25" s="4"/>
       <c r="F25"/>
       <c r="G25" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>182</v>
+      <c r="B26" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26"/>
       <c r="G26" s="13" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>183</v>
+      <c r="B27" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27"/>
       <c r="G27" s="13" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>183</v>
+      <c r="B28" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28"/>
       <c r="G28" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2288,13 +2287,13 @@
         <v>56</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29"/>
@@ -2307,18 +2306,18 @@
         <v>56</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30"/>
       <c r="H30" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2364,13 +2363,13 @@
         <v>56</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33"/>
@@ -2383,18 +2382,18 @@
         <v>56</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34"/>
       <c r="H34" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2402,18 +2401,18 @@
         <v>56</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35"/>
       <c r="H35" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2421,18 +2420,18 @@
         <v>56</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36"/>
       <c r="H36" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2440,18 +2439,18 @@
         <v>56</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37"/>
       <c r="H37" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2459,18 +2458,18 @@
         <v>56</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38"/>
       <c r="H38" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2497,18 +2496,18 @@
         <v>56</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40"/>
       <c r="H40" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2516,13 +2515,13 @@
         <v>56</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41"/>
@@ -2535,18 +2534,18 @@
         <v>56</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42"/>
       <c r="H42" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2573,18 +2572,18 @@
         <v>56</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44"/>
       <c r="H44" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2592,18 +2591,18 @@
         <v>56</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45"/>
       <c r="H45" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2611,18 +2610,18 @@
         <v>56</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46"/>
       <c r="H46" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2630,18 +2629,18 @@
         <v>56</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47"/>
       <c r="H47" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2649,18 +2648,18 @@
         <v>56</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48"/>
       <c r="H48" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2668,18 +2667,18 @@
         <v>56</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49"/>
       <c r="H49" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2687,18 +2686,18 @@
         <v>56</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50"/>
       <c r="H50" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2706,18 +2705,18 @@
         <v>56</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51"/>
       <c r="H51" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2725,18 +2724,18 @@
         <v>56</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52"/>
       <c r="H52" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2744,18 +2743,18 @@
         <v>56</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53"/>
       <c r="H53" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2763,18 +2762,18 @@
         <v>56</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54"/>
       <c r="H54" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2782,18 +2781,18 @@
         <v>56</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55"/>
       <c r="H55" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2801,18 +2800,18 @@
         <v>56</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56"/>
       <c r="H56" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2820,18 +2819,18 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57"/>
       <c r="H57" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2839,18 +2838,18 @@
         <v>56</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58"/>
       <c r="H58" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2858,18 +2857,18 @@
         <v>56</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59"/>
       <c r="H59" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2877,18 +2876,18 @@
         <v>56</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60"/>
       <c r="H60" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2896,18 +2895,18 @@
         <v>56</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61"/>
       <c r="H61" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2915,18 +2914,18 @@
         <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62"/>
       <c r="H62" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2945,7 +2944,7 @@
       <c r="E63" s="4"/>
       <c r="F63"/>
       <c r="H63" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2953,18 +2952,18 @@
         <v>56</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64"/>
       <c r="H64" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2972,13 +2971,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65"/>
@@ -3010,13 +3009,13 @@
         <v>56</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67"/>
@@ -3048,18 +3047,18 @@
         <v>56</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69"/>
       <c r="H69" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3067,18 +3066,18 @@
         <v>56</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70"/>
       <c r="H70" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3143,18 +3142,18 @@
         <v>56</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74"/>
       <c r="H74" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3162,13 +3161,13 @@
         <v>56</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75"/>
@@ -3181,13 +3180,13 @@
         <v>56</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76"/>
@@ -3200,18 +3199,18 @@
         <v>56</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77"/>
       <c r="H77" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3219,18 +3218,18 @@
         <v>56</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78"/>
       <c r="H78" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3257,18 +3256,18 @@
         <v>56</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80"/>
       <c r="H80" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3276,18 +3275,18 @@
         <v>56</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81"/>
       <c r="H81" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3295,18 +3294,18 @@
         <v>56</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82"/>
       <c r="H82" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3314,18 +3313,18 @@
         <v>56</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83"/>
       <c r="H83" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3333,18 +3332,18 @@
         <v>56</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84"/>
       <c r="H84" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3352,18 +3351,18 @@
         <v>56</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85"/>
       <c r="H85" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3371,18 +3370,18 @@
         <v>56</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86"/>
       <c r="H86" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3390,18 +3389,18 @@
         <v>56</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87"/>
       <c r="H87" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3409,18 +3408,18 @@
         <v>56</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88"/>
       <c r="H88" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3428,18 +3427,18 @@
         <v>56</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89"/>
       <c r="H89" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3447,18 +3446,18 @@
         <v>56</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90"/>
       <c r="H90" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3466,18 +3465,18 @@
         <v>56</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91"/>
       <c r="H91" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3485,13 +3484,13 @@
         <v>56</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92"/>
@@ -3523,18 +3522,18 @@
         <v>56</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94"/>
       <c r="H94" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3542,13 +3541,13 @@
         <v>56</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95"/>
@@ -3572,7 +3571,7 @@
       <c r="E96" s="4"/>
       <c r="F96"/>
       <c r="H96" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3599,18 +3598,18 @@
         <v>56</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98"/>
       <c r="H98" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3618,18 +3617,18 @@
         <v>56</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99"/>
       <c r="H99" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3648,7 +3647,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="6"/>
       <c r="H100" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3656,18 +3655,18 @@
         <v>56</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="6"/>
       <c r="H101" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3675,13 +3674,13 @@
         <v>56</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="6"/>
@@ -3705,7 +3704,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="6"/>
       <c r="H103" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3724,7 +3723,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="6"/>
       <c r="H104" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3732,13 +3731,13 @@
         <v>56</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="6"/>
@@ -3751,18 +3750,18 @@
         <v>56</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="6"/>
       <c r="H106" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3770,18 +3769,18 @@
         <v>56</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="6"/>
       <c r="H107" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3789,25 +3788,25 @@
         <v>56</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="6"/>
       <c r="H108" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -3826,33 +3825,33 @@
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>238</v>
+      <c r="B110" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="6"/>
       <c r="H110" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>239</v>
+      <c r="B111" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="6"/>
@@ -3864,7 +3863,7 @@
       <c r="A112" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -3883,26 +3882,26 @@
       <c r="A113" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>240</v>
+      <c r="B113" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="6"/>
       <c r="H113" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C114" t="s">
@@ -3914,109 +3913,109 @@
       <c r="E114" s="4"/>
       <c r="F114" s="6"/>
       <c r="H114" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="20" t="s">
-        <v>241</v>
+      <c r="B115" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="6"/>
       <c r="H115" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>242</v>
+      <c r="B116" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="6"/>
       <c r="H116" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>243</v>
+      <c r="B117" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="6"/>
       <c r="H117" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>244</v>
+      <c r="B118" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D118" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="6"/>
       <c r="H118" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>245</v>
+      <c r="B119" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="6"/>
       <c r="H119" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C120" t="s">
@@ -4028,14 +4027,14 @@
       <c r="E120" s="4"/>
       <c r="F120" s="6"/>
       <c r="H120" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C121" t="s">
@@ -4047,33 +4046,33 @@
       <c r="E121" s="4"/>
       <c r="F121" s="6"/>
       <c r="H121" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="20" t="s">
-        <v>160</v>
+      <c r="B122" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="6"/>
       <c r="H122" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C123" t="s">
@@ -4085,14 +4084,14 @@
       <c r="E123" s="4"/>
       <c r="F123" s="6"/>
       <c r="H123" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C124" t="s">
@@ -4104,14 +4103,14 @@
       <c r="E124" s="4"/>
       <c r="F124" s="6"/>
       <c r="H124" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C125" t="s">
@@ -4130,7 +4129,7 @@
       <c r="A126" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C126" t="s">
@@ -4142,33 +4141,33 @@
       <c r="E126" s="4"/>
       <c r="F126" s="6"/>
       <c r="H126" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B127" s="20" t="s">
-        <v>246</v>
+      <c r="B127" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="6"/>
       <c r="H127" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C128" t="s">
@@ -4180,52 +4179,52 @@
       <c r="E128" s="4"/>
       <c r="F128" s="6"/>
       <c r="H128" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="20" t="s">
-        <v>247</v>
+      <c r="B129" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="6"/>
       <c r="H129" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>248</v>
+      <c r="B130" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="6"/>
       <c r="H130" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C131" t="s">
@@ -4237,21 +4236,21 @@
       <c r="E131" s="4"/>
       <c r="F131" s="6"/>
       <c r="H131" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>249</v>
+      <c r="B132" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="6"/>
@@ -4263,57 +4262,57 @@
       <c r="A133" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>250</v>
+      <c r="B133" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="6"/>
       <c r="H133" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>251</v>
+      <c r="B134" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="6"/>
       <c r="H134" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" t="s">
         <v>91</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" t="s">
         <v>91</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="6"/>
       <c r="H135" s="2" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4321,26 +4320,26 @@
         <v>56</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="6"/>
       <c r="G136"/>
       <c r="H136" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -4352,7 +4351,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="6"/>
       <c r="H137" s="2" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4360,95 +4359,95 @@
         <v>56</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C138" t="s">
-        <v>316</v>
-      </c>
-      <c r="D138" t="s">
-        <v>316</v>
+        <v>93</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="6"/>
       <c r="G138"/>
       <c r="H138" s="2" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>93</v>
+      <c r="B139" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="6"/>
       <c r="H139" s="2" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B140" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>94</v>
+      <c r="B140" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" t="s">
+        <v>311</v>
+      </c>
+      <c r="D140" t="s">
+        <v>311</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="6"/>
       <c r="H140" s="2" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="20" t="s">
-        <v>152</v>
+      <c r="B141" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="6"/>
       <c r="H141" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>95</v>
+      <c r="B142" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="6"/>
       <c r="H142" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4456,171 +4455,171 @@
         <v>56</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="D143" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="6"/>
       <c r="G143"/>
       <c r="H143" s="2" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>157</v>
+      <c r="B144" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" t="s">
+        <v>248</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="6"/>
       <c r="H144" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>164</v>
+      <c r="B145" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" t="s">
+        <v>249</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="6"/>
       <c r="H145" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D146" t="s">
-        <v>96</v>
+      <c r="B146" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="6"/>
       <c r="H146" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B147" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C147" t="s">
-        <v>252</v>
-      </c>
-      <c r="D147" t="s">
-        <v>252</v>
+      <c r="B147" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="6"/>
       <c r="H147" s="2" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B148" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" t="s">
-        <v>253</v>
-      </c>
-      <c r="D148" t="s">
-        <v>253</v>
+      <c r="B148" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="H148" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B149" s="20" t="s">
-        <v>166</v>
+      <c r="B149" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="H149" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B150" s="20" t="s">
-        <v>149</v>
+      <c r="B150" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="H150" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B151" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>97</v>
+      <c r="B151" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" t="s">
+        <v>250</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="15"/>
       <c r="H151" s="2" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4628,18 +4627,18 @@
         <v>56</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152"/>
       <c r="H152" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4647,18 +4646,18 @@
         <v>56</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153"/>
       <c r="H153" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4666,18 +4665,18 @@
         <v>56</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154"/>
       <c r="H154" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4685,18 +4684,18 @@
         <v>56</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>255</v>
+        <v>96</v>
+      </c>
+      <c r="C155" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" t="s">
+        <v>96</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155"/>
       <c r="H155" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4704,18 +4703,18 @@
         <v>56</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="C156" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" t="s">
+        <v>254</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156"/>
       <c r="H156" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4723,18 +4722,18 @@
         <v>56</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C157" t="s">
-        <v>257</v>
-      </c>
-      <c r="D157" t="s">
-        <v>257</v>
+        <v>97</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157"/>
       <c r="H157" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4753,7 +4752,7 @@
       <c r="E158" s="4"/>
       <c r="F158"/>
       <c r="H158" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4761,13 +4760,13 @@
         <v>56</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D159" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159"/>
@@ -4780,19 +4779,19 @@
         <v>56</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>99</v>
+        <v>256</v>
+      </c>
+      <c r="C160" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" t="s">
+        <v>256</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160"/>
       <c r="G160"/>
       <c r="H160" s="2" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4800,19 +4799,19 @@
         <v>56</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="D161" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161"/>
       <c r="G161"/>
       <c r="H161" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4820,13 +4819,13 @@
         <v>56</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162"/>
@@ -4840,19 +4839,19 @@
         <v>56</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="D163" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163"/>
       <c r="G163"/>
       <c r="H163" s="2" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4860,19 +4859,19 @@
         <v>56</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164"/>
       <c r="G164"/>
       <c r="H164" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4880,19 +4879,19 @@
         <v>56</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C165" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165"/>
       <c r="G165"/>
       <c r="H165" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4900,19 +4899,19 @@
         <v>56</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C166" t="s">
-        <v>101</v>
-      </c>
-      <c r="D166" t="s">
-        <v>101</v>
+        <v>261</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166"/>
       <c r="G166"/>
       <c r="H166" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4920,19 +4919,19 @@
         <v>56</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D167" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4940,19 +4939,19 @@
         <v>56</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="C168" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="D168" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168"/>
       <c r="G168"/>
       <c r="H168" s="2" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4960,19 +4959,19 @@
         <v>56</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>265</v>
+        <v>102</v>
+      </c>
+      <c r="C169" t="s">
+        <v>102</v>
+      </c>
+      <c r="D169" t="s">
+        <v>102</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169"/>
       <c r="G169"/>
       <c r="H169" s="2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4980,19 +4979,19 @@
         <v>56</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D170" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170"/>
       <c r="G170"/>
       <c r="H170" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5000,13 +4999,13 @@
         <v>56</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C171" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D171" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171"/>
@@ -5020,19 +5019,19 @@
         <v>56</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="D172" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172"/>
       <c r="G172"/>
       <c r="H172" s="2" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5052,7 +5051,7 @@
       <c r="F173"/>
       <c r="G173"/>
       <c r="H173" s="2" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5060,19 +5059,19 @@
         <v>56</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="C174" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="D174" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174"/>
       <c r="G174"/>
       <c r="H174" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5080,19 +5079,19 @@
         <v>56</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C175" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D175" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175" s="2" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5100,19 +5099,19 @@
         <v>56</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="C176" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="D176" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5120,19 +5119,19 @@
         <v>56</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C177" t="s">
-        <v>267</v>
-      </c>
-      <c r="D177" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177" s="2" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5140,19 +5139,19 @@
         <v>56</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C178" t="s">
-        <v>268</v>
-      </c>
-      <c r="D178" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178"/>
       <c r="G178"/>
       <c r="H178" s="2" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5160,19 +5159,19 @@
         <v>56</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179"/>
       <c r="G179"/>
       <c r="H179" s="2" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5180,19 +5179,19 @@
         <v>56</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C180" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="C180" t="s">
+        <v>269</v>
+      </c>
+      <c r="D180" t="s">
+        <v>269</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180"/>
       <c r="G180"/>
       <c r="H180" s="2" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5200,19 +5199,19 @@
         <v>56</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>271</v>
+        <v>106</v>
+      </c>
+      <c r="C181" t="s">
+        <v>106</v>
+      </c>
+      <c r="D181" t="s">
+        <v>106</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5220,19 +5219,19 @@
         <v>56</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C182" t="s">
-        <v>272</v>
-      </c>
-      <c r="D182" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182" s="2" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5240,19 +5239,19 @@
         <v>56</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="C183" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="D183" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183" s="2" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5262,17 +5261,17 @@
       <c r="B184" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184"/>
       <c r="G184"/>
       <c r="H184" s="2" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5280,19 +5279,19 @@
         <v>56</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>274</v>
+        <v>109</v>
+      </c>
+      <c r="C185" t="s">
+        <v>109</v>
+      </c>
+      <c r="D185" t="s">
+        <v>109</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185" s="2" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5300,19 +5299,19 @@
         <v>56</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="C186" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="D186" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186"/>
       <c r="G186"/>
       <c r="H186" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5322,17 +5321,17 @@
       <c r="B187" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C187" t="s">
         <v>110</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" t="s">
         <v>110</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5360,19 +5359,19 @@
         <v>56</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C189" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5380,19 +5379,19 @@
         <v>56</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="C190" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5400,13 +5399,13 @@
         <v>56</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C191" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D191" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191"/>
@@ -5419,40 +5418,40 @@
       <c r="A192" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B192" s="21" t="s">
-        <v>276</v>
+      <c r="B192" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C192" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192"/>
       <c r="G192"/>
       <c r="H192" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C193" t="s">
-        <v>277</v>
-      </c>
-      <c r="D193" t="s">
-        <v>277</v>
+      <c r="B193" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193"/>
       <c r="G193"/>
       <c r="H193" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5460,19 +5459,19 @@
         <v>56</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="C194" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="D194" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5480,19 +5479,19 @@
         <v>56</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C195" t="s">
-        <v>115</v>
-      </c>
-      <c r="D195" t="s">
-        <v>115</v>
+        <v>275</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195" s="2" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5500,19 +5499,19 @@
         <v>56</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196" s="2" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5520,19 +5519,19 @@
         <v>56</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C197" t="s">
-        <v>278</v>
-      </c>
-      <c r="D197" t="s">
-        <v>278</v>
+        <v>140</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197"/>
       <c r="G197"/>
       <c r="H197" s="2" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5540,19 +5539,19 @@
         <v>56</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198"/>
       <c r="G198"/>
       <c r="H198" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5560,19 +5559,19 @@
         <v>56</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199"/>
       <c r="G199"/>
       <c r="H199" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5580,19 +5579,19 @@
         <v>56</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200"/>
       <c r="G200"/>
       <c r="H200" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5600,19 +5599,19 @@
         <v>56</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>145</v>
+        <v>310</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+      <c r="D201" t="s">
+        <v>310</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201"/>
       <c r="G201"/>
       <c r="H201" s="2" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5620,19 +5619,19 @@
         <v>56</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D202" s="14" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C202" t="s">
+        <v>115</v>
+      </c>
+      <c r="D202" t="s">
+        <v>115</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202"/>
       <c r="G202"/>
       <c r="H202" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5640,19 +5639,19 @@
         <v>56</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D203" s="14" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203" t="s">
+        <v>116</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5662,17 +5661,17 @@
       <c r="B204" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="C204" t="s">
         <v>117</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" t="s">
         <v>117</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204"/>
       <c r="G204"/>
       <c r="H204" s="2" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5680,19 +5679,19 @@
         <v>56</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="D205" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205"/>
       <c r="H205" s="2" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5700,13 +5699,13 @@
         <v>56</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C206" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="D206" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206"/>
@@ -5720,19 +5719,19 @@
         <v>56</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C207" t="s">
-        <v>119</v>
-      </c>
-      <c r="D207" t="s">
-        <v>119</v>
+        <v>278</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207"/>
       <c r="G207"/>
       <c r="H207" s="2" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5740,19 +5739,19 @@
         <v>56</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C208" t="s">
-        <v>120</v>
-      </c>
-      <c r="D208" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208"/>
       <c r="G208"/>
       <c r="H208" s="2" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5760,19 +5759,19 @@
         <v>56</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="C209" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209"/>
       <c r="G209"/>
       <c r="H209" s="2" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5780,19 +5779,19 @@
         <v>56</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D210" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210"/>
       <c r="G210"/>
       <c r="H210" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5800,19 +5799,19 @@
         <v>56</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="C211" t="s">
+        <v>280</v>
+      </c>
+      <c r="D211" t="s">
+        <v>280</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211"/>
       <c r="G211"/>
       <c r="H211" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5820,19 +5819,19 @@
         <v>56</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D212" s="14" t="s">
-        <v>151</v>
+        <v>281</v>
+      </c>
+      <c r="C212" t="s">
+        <v>281</v>
+      </c>
+      <c r="D212" t="s">
+        <v>281</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212"/>
       <c r="G212"/>
       <c r="H212" s="2" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5840,19 +5839,19 @@
         <v>56</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="C213" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D213" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213"/>
       <c r="G213"/>
       <c r="H213" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5942,17 +5941,17 @@
       <c r="B218" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="14" t="s">
         <v>287</v>
       </c>
       <c r="E218" s="4"/>
       <c r="F218"/>
       <c r="G218"/>
       <c r="H218" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5972,7 +5971,7 @@
       <c r="F219"/>
       <c r="G219"/>
       <c r="H219" s="2" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5980,19 +5979,19 @@
         <v>56</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C220" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D220" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220"/>
       <c r="G220"/>
       <c r="H220" s="2" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6000,19 +5999,19 @@
         <v>56</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C221" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D221" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221" s="2" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6020,19 +6019,19 @@
         <v>56</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="C222" t="s">
+        <v>290</v>
+      </c>
+      <c r="D222" t="s">
+        <v>290</v>
       </c>
       <c r="E222" s="4"/>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222" s="2" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6040,19 +6039,19 @@
         <v>56</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="C223" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="D223" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="E223" s="4"/>
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223" s="2" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6060,19 +6059,19 @@
         <v>56</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D224" s="14" t="s">
-        <v>122</v>
+        <v>291</v>
+      </c>
+      <c r="C224" t="s">
+        <v>291</v>
+      </c>
+      <c r="D224" t="s">
+        <v>291</v>
       </c>
       <c r="E224" s="4"/>
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224" s="2" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6080,19 +6079,19 @@
         <v>56</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="D225" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225"/>
       <c r="H225" s="2" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6112,7 +6111,7 @@
       <c r="F226"/>
       <c r="G226"/>
       <c r="H226" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6132,7 +6131,7 @@
       <c r="F227"/>
       <c r="G227"/>
       <c r="H227" s="2" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6140,19 +6139,19 @@
         <v>56</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="C228" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="D228" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228"/>
       <c r="G228"/>
       <c r="H228" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6160,13 +6159,13 @@
         <v>56</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C229" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D229" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E229" s="4"/>
       <c r="F229"/>
@@ -6180,19 +6179,19 @@
         <v>56</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C230" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D230" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230"/>
       <c r="G230"/>
       <c r="H230" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6200,19 +6199,19 @@
         <v>56</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C231" t="s">
-        <v>297</v>
-      </c>
-      <c r="D231" t="s">
-        <v>297</v>
+        <v>154</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="E231" s="4"/>
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6232,7 +6231,7 @@
       <c r="F232"/>
       <c r="G232"/>
       <c r="H232" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6240,19 +6239,19 @@
         <v>56</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="C233" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="D233" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="E233" s="4"/>
       <c r="F233"/>
       <c r="G233"/>
       <c r="H233" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6260,19 +6259,19 @@
         <v>56</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C234" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D234" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E234" s="4"/>
       <c r="F234"/>
       <c r="G234"/>
       <c r="H234" s="2" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6280,19 +6279,19 @@
         <v>56</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="C235" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="D235" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="E235" s="4"/>
       <c r="F235"/>
       <c r="G235"/>
       <c r="H235" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6300,19 +6299,19 @@
         <v>56</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D236" s="14" t="s">
-        <v>158</v>
+        <v>314</v>
+      </c>
+      <c r="C236" t="s">
+        <v>314</v>
+      </c>
+      <c r="D236" t="s">
+        <v>314</v>
       </c>
       <c r="E236" s="4"/>
       <c r="F236"/>
       <c r="G236"/>
       <c r="H236" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6320,19 +6319,19 @@
         <v>56</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C237" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D237" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E237" s="4"/>
       <c r="F237"/>
       <c r="G237"/>
       <c r="H237" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6340,19 +6339,19 @@
         <v>56</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="C238" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="D238" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="E238" s="4"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238" s="2" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6360,19 +6359,19 @@
         <v>56</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="C239" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="D239" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239"/>
       <c r="G239"/>
       <c r="H239" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6380,19 +6379,19 @@
         <v>56</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C240" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D240" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240"/>
       <c r="G240"/>
       <c r="H240" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6400,19 +6399,19 @@
         <v>56</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="C241" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="D241" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241"/>
       <c r="G241"/>
       <c r="H241" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6420,19 +6419,19 @@
         <v>56</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="C242" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="D242" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242"/>
       <c r="G242"/>
       <c r="H242" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6440,19 +6439,19 @@
         <v>56</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="C243" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="D243" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243"/>
       <c r="G243"/>
       <c r="H243" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6460,19 +6459,19 @@
         <v>56</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="C244" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="D244" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244"/>
       <c r="G244"/>
       <c r="H244" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6480,19 +6479,19 @@
         <v>56</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="C245" t="s">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="D245" t="s">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245"/>
       <c r="G245"/>
       <c r="H245" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6500,19 +6499,19 @@
         <v>56</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="C246" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="D246" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246"/>
       <c r="G246"/>
       <c r="H246" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6520,19 +6519,19 @@
         <v>56</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C247" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D247" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247"/>
       <c r="G247"/>
       <c r="H247" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6540,19 +6539,19 @@
         <v>56</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C248" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D248" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E248" s="4"/>
       <c r="F248"/>
       <c r="G248"/>
       <c r="H248" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6560,19 +6559,19 @@
         <v>56</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C249" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D249" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249"/>
       <c r="G249"/>
       <c r="H249" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6580,19 +6579,19 @@
         <v>56</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C250" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D250" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250"/>
       <c r="G250"/>
       <c r="H250" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6600,19 +6599,19 @@
         <v>56</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C251" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D251" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E251" s="4"/>
       <c r="F251"/>
       <c r="G251"/>
       <c r="H251" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6620,19 +6619,19 @@
         <v>56</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C252" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D252" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252"/>
       <c r="G252"/>
       <c r="H252" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6640,13 +6639,13 @@
         <v>56</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C253" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D253" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253"/>
@@ -6660,19 +6659,19 @@
         <v>56</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C254" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D254" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E254" s="4"/>
       <c r="F254"/>
       <c r="G254"/>
       <c r="H254" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6680,19 +6679,19 @@
         <v>56</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C255" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D255" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E255" s="4"/>
       <c r="F255"/>
       <c r="G255"/>
       <c r="H255" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6700,18 +6699,18 @@
         <v>56</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C256" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D256" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E256" s="4"/>
       <c r="F256"/>
       <c r="H256" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6719,18 +6718,18 @@
         <v>56</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C257" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D257" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257"/>
       <c r="H257" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6738,17 +6737,17 @@
         <v>56</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D258" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E258" s="4"/>
       <c r="H258" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6756,17 +6755,17 @@
         <v>56</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="C259" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="D259" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="E259" s="4"/>
       <c r="H259" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6774,18 +6773,18 @@
         <v>56</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D260" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E260" s="4"/>
       <c r="F260"/>
       <c r="H260" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6793,18 +6792,18 @@
         <v>56</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C261" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D261" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="6"/>
       <c r="H261" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6812,18 +6811,18 @@
         <v>56</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="C262" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D262" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="E262" s="4"/>
       <c r="F262" s="6"/>
       <c r="H262" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6831,18 +6830,18 @@
         <v>56</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="C263" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D263" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="6"/>
       <c r="H263" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6850,18 +6849,18 @@
         <v>56</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D264" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E264" s="4"/>
       <c r="F264" s="6"/>
       <c r="H264" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6869,18 +6868,18 @@
         <v>56</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C265" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D265" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E265" s="4"/>
       <c r="F265" s="6"/>
       <c r="H265" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6888,19 +6887,19 @@
         <v>56</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="C266" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="D266" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="6"/>
       <c r="G266"/>
       <c r="H266" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6908,19 +6907,19 @@
         <v>56</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C267" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D267" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="6"/>
       <c r="G267"/>
       <c r="H267" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6928,19 +6927,19 @@
         <v>56</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="C268" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="D268" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268"/>
       <c r="G268"/>
       <c r="H268" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6948,19 +6947,19 @@
         <v>56</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C269" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D269" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E269" s="4"/>
       <c r="F269"/>
       <c r="G269"/>
       <c r="H269" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6968,19 +6967,19 @@
         <v>56</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="C270" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="D270" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="E270" s="4"/>
       <c r="F270"/>
       <c r="G270"/>
       <c r="H270" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6988,19 +6987,19 @@
         <v>56</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C271" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D271" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E271" s="4"/>
       <c r="F271"/>
       <c r="G271"/>
       <c r="H271" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7008,19 +7007,19 @@
         <v>56</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C272" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D272" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272"/>
       <c r="G272"/>
       <c r="H272" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7028,19 +7027,19 @@
         <v>56</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C273" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D273" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E273" s="4"/>
       <c r="F273"/>
       <c r="G273"/>
       <c r="H273" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7048,19 +7047,19 @@
         <v>56</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C274" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D274" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E274" s="4"/>
       <c r="F274"/>
       <c r="G274"/>
       <c r="H274" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7068,19 +7067,19 @@
         <v>56</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C275" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D275" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E275" s="4"/>
       <c r="F275"/>
       <c r="G275"/>
       <c r="H275" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -7508,7 +7507,7 @@
     </row>
     <row r="323" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323"/>
-      <c r="B323" s="21"/>
+      <c r="B323" s="20"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323" s="4"/>
@@ -7517,7 +7516,7 @@
     </row>
     <row r="324" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324"/>
-      <c r="B324" s="21"/>
+      <c r="B324" s="20"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324" s="4"/>
@@ -7869,14 +7868,14 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372"/>
-      <c r="B372" s="21"/>
+      <c r="B372" s="20"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="H372"/>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373"/>
-      <c r="B373" s="21"/>
+      <c r="B373" s="20"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="H373"/>
@@ -8394,7 +8393,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447"/>
-      <c r="B447" s="22"/>
+      <c r="B447" s="21"/>
       <c r="C447" s="10"/>
       <c r="D447" s="10"/>
       <c r="H447"/>
@@ -8415,7 +8414,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450"/>
-      <c r="B450" s="22"/>
+      <c r="B450" s="21"/>
       <c r="C450" s="10"/>
       <c r="D450" s="10"/>
       <c r="H450"/>
@@ -8578,7 +8577,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
